--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5BA2E89E-E602-4DF9-AEF8-49F652FAFD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D726D8C-8CA5-4B39-9366-009F632BF032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -476,27 +480,27 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -548,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -574,7 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -600,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -626,7 +630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -652,7 +656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -678,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -704,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -730,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -756,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -782,7 +786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -808,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -828,7 +832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -848,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -868,7 +872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -888,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -908,7 +912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -928,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -948,7 +952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>

--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -5,36 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Gold Sikka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D726D8C-8CA5-4B39-9366-009F632BF032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35179D1-7407-4F80-A99E-0EB611CA8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
+    <sheet name="BookingAccount" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
   <si>
     <t>SelectAmount</t>
   </si>
@@ -109,13 +102,31 @@
   </si>
   <si>
     <t>9500</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Kotak</t>
+  </si>
+  <si>
+    <t>Yes Bank</t>
+  </si>
+  <si>
+    <t>BOB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +141,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,11 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,4 +994,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F471DF7-AAEB-4A54-9134-76C9DEB34004}">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA838662-A4AA-45F9-ABFD-8BE5BC0CF94C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Gold Sikka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35179D1-7407-4F80-A99E-0EB611CA8464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB8DD7-A590-41DE-AC9D-E876BE8E740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3630" windowWidth="21600" windowHeight="11385" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
   <si>
     <t>SelectAmount</t>
   </si>
@@ -120,6 +120,66 @@
   </si>
   <si>
     <t>BOB</t>
+  </si>
+  <si>
+    <t>WalletTotalPayableAmt</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>4300</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>5300</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>9300</t>
+  </si>
+  <si>
+    <t>7300</t>
+  </si>
+  <si>
+    <t>7800</t>
+  </si>
+  <si>
+    <t>8300</t>
+  </si>
+  <si>
+    <t>6800</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>6300</t>
   </si>
 </sst>
 </file>
@@ -495,21 +555,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0824939A-B61C-43C1-9C85-269FF48CB530}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,207 +658,207 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>24</v>
@@ -806,187 +866,310 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="1" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Gold Sikka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB8DD7-A590-41DE-AC9D-E876BE8E740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA0E5A-7CE2-4051-93BD-DA482F494549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
+    <workbookView xWindow="6960" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
@@ -104,24 +104,9 @@
     <t>9500</t>
   </si>
   <si>
-    <t>ICICI</t>
-  </si>
-  <si>
-    <t>Axis</t>
-  </si>
-  <si>
     <t>HDFC</t>
   </si>
   <si>
-    <t>Kotak</t>
-  </si>
-  <si>
-    <t>Yes Bank</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
     <t>WalletTotalPayableAmt</t>
   </si>
   <si>
@@ -180,6 +165,21 @@
   </si>
   <si>
     <t>6300</t>
+  </si>
+  <si>
+    <t>ICIC</t>
+  </si>
+  <si>
+    <t>UTIB</t>
+  </si>
+  <si>
+    <t>KKBK</t>
+  </si>
+  <si>
+    <t>YESB</t>
+  </si>
+  <si>
+    <t>BARB_R</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0824939A-B61C-43C1-9C85-269FF48CB530}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,28 +658,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -788,28 +788,28 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -918,28 +918,28 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,22 +1035,22 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1135,22 +1135,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F471DF7-AAEB-4A54-9134-76C9DEB34004}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,27 +1196,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Automation.xlsx
+++ b/src/test/resources/Automation.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Gold Sikka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BA0E5A-7CE2-4051-93BD-DA482F494549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED57FE-2077-47FF-B29D-2B180932F092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{BFF1E3F6-C172-46CB-8C8F-E6624355AF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Scheme" sheetId="1" r:id="rId1"/>
     <sheet name="BookingAccount" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="SchemesBanksDropdown" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="101">
   <si>
     <t>SelectAmount</t>
   </si>
@@ -180,13 +180,555 @@
   </si>
   <si>
     <t>BARB_R</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Royal Bank of Scotland N.V.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Airtel Payments Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Allahabad Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AU Small Finance Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bank of Baroda - Retail Banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bank of India</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Central Bank of India</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>City Union Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Canara Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Union Bank of India (Erstwhile Corporation Bank)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Catholic Syrian Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DCB Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dhanlaxmi Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Dhanlaxmi Bank - Corporate Banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Equitas Small Finance Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Federal Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Fincare Small Finance Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HDFC Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IDBI - Corporate Banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICICI Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IDFC FIRST Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Indian Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Indusind Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Indian Overseas Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jammu and Kashmir Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Jana Small Finance Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Kotak Mahindra Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Karur Vysya Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lakshmi Vilas Bank - Corporate Banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NSDL Payments Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PNB (Erstwhile-Oriental Bank of Commerce)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Punjab &amp; Sind Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Punjab National Bank - Retail Banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RBL Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Standard Chartered Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>South Indian Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Saraswat Co-operative Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SVC Co-Operative Bank Ltd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SVC Co-Operative Bank Ltd. - Corporate Banking</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Syndicate Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Tamilnadu Mercantile Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Union Bank of India</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>UCO Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ujjivan Small Finance Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PNB (Erstwhile-United Bank of India)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Axis Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bank of Baroda - Retail Banking (Erstwhile Vijaya Bank)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Yes Bank</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Yes Bank - Corporate Banking</t>
+    </r>
+  </si>
+  <si>
+    <t>All BankNames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +749,19 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,18 +787,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C7E2BC0F-CA05-4277-A463-45F9E19975C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,7 +1122,7 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -573,12 +1134,12 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1">
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +1165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -656,7 +1217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -682,7 +1243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -708,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -734,7 +1295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -760,7 +1321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -786,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -812,7 +1373,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -838,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -864,7 +1425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -890,7 +1451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -916,7 +1477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -942,7 +1503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -968,12 +1529,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="J19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1013,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1053,7 +1614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1113,7 +1674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1183,38 +1744,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F471DF7-AAEB-4A54-9134-76C9DEB34004}">
   <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
@@ -1226,12 +1787,278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA838662-A4AA-45F9-ABFD-8BE5BC0CF94C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>